--- a/adonis_results.xlsx
+++ b/adonis_results.xlsx
@@ -398,7 +398,7 @@
         <v>0.326090914433614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0773863185597042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.117</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.0922949708559731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.933</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="5">

--- a/adonis_results.xlsx
+++ b/adonis_results.xlsx
@@ -398,7 +398,7 @@
         <v>0.326090914433614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.375</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0773863185597042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.023</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.0922949708559731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.661</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="5">

--- a/adonis_results.xlsx
+++ b/adonis_results.xlsx
@@ -398,7 +398,7 @@
         <v>0.326090914433614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.337</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0773863185597042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.015</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.0922949708559731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.668</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="5">
